--- a/regionseng/7/transport and communication/the length of the roads.xlsx
+++ b/regionseng/7/transport and communication/the length of the roads.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A683B42B-02DE-4A8A-9BAB-B54427F32BC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="2355" yWindow="1830" windowWidth="13200" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Total</t>
   </si>
@@ -28,8 +29,20 @@
     <t>Secondary road</t>
   </si>
   <si>
+    <t>Source: Department of Roads and Municipal Administration</t>
+  </si>
+  <si>
+    <t>local road</t>
+  </si>
+  <si>
+    <t>Note: Based on the amendment to the law of Georgia "On Motorways", from 2021, the local roads include the roads within the administrative boundaries of the settlement, which do not belong to the international, secondary and departmental road. Also, the indicator of the length of local roads does not include self-governing cities.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Length of transport ways in  Racha-Lechkhumi and Kvemo Svaneti region
+      <t xml:space="preserve">Length of transport ways in Racha-Lechkhumi and Kvemo Svaneti region
 </t>
     </r>
     <r>
@@ -42,24 +55,17 @@
       <t>(end of year; km)</t>
     </r>
   </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Source: Department of Roads and Municipal Administration</t>
-  </si>
-  <si>
-    <t>Data is specified by Municipal Administration (without inland roads).</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,13 +83,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="MS Sans Serif"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -107,12 +106,12 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -130,13 +129,39 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -168,50 +193,75 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="Comma" xfId="4" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 6" xfId="2"/>
-    <cellStyle name="Normal_Sheet1 3" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal_Sheet1 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -302,6 +352,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -337,6 +404,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -512,35 +596,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="77" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>2011</v>
@@ -572,8 +658,14 @@
       <c r="K2" s="3">
         <v>2020</v>
       </c>
+      <c r="L2" s="3">
+        <v>2021</v>
+      </c>
+      <c r="M2" s="3">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -607,9 +699,15 @@
       <c r="K3" s="7">
         <v>1627.4</v>
       </c>
+      <c r="L3" s="9">
+        <v>2119.9</v>
+      </c>
+      <c r="M3" s="14">
+        <v>2119.9</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="7"/>
@@ -622,90 +720,185 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
+      <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17">
+        <v>388.3</v>
+      </c>
+      <c r="C6" s="17">
+        <v>388.3</v>
+      </c>
+      <c r="D6" s="17">
+        <v>388.3</v>
+      </c>
+      <c r="E6" s="17">
+        <v>388.3</v>
+      </c>
+      <c r="F6" s="17">
+        <v>388.3</v>
+      </c>
+      <c r="G6" s="17">
+        <v>388.3</v>
+      </c>
+      <c r="H6" s="7">
+        <v>388.3</v>
+      </c>
+      <c r="I6" s="7">
+        <v>388.3</v>
+      </c>
+      <c r="J6" s="7">
+        <v>388.3</v>
+      </c>
+      <c r="K6" s="7">
+        <v>388.3</v>
+      </c>
+      <c r="L6" s="9">
+        <v>401.8</v>
+      </c>
+      <c r="M6" s="18">
+        <v>401.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>5</v>
+      <c r="B7" s="19">
+        <v>888</v>
+      </c>
+      <c r="C7" s="19">
+        <v>894</v>
+      </c>
+      <c r="D7" s="20">
+        <v>1257.5</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1257.5</v>
+      </c>
+      <c r="F7" s="20">
+        <v>1257.5</v>
+      </c>
+      <c r="G7" s="20">
+        <v>1257.5</v>
+      </c>
+      <c r="H7" s="20">
+        <v>1215.5</v>
+      </c>
+      <c r="I7" s="20">
+        <v>1215.5</v>
+      </c>
+      <c r="J7" s="20">
+        <v>1215.5</v>
+      </c>
+      <c r="K7" s="20">
+        <v>1239.0999999999999</v>
+      </c>
+      <c r="L7" s="11">
+        <v>1718.1</v>
+      </c>
+      <c r="M7" s="21">
+        <v>1718.1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8">
-        <v>388.3</v>
-      </c>
-      <c r="C6" s="8">
-        <v>388.3</v>
-      </c>
-      <c r="D6" s="8">
-        <v>388.3</v>
-      </c>
-      <c r="E6" s="8">
-        <v>388.3</v>
-      </c>
-      <c r="F6" s="8">
-        <v>388.3</v>
-      </c>
-      <c r="G6" s="8">
-        <v>388.3</v>
-      </c>
-      <c r="H6" s="9">
-        <v>388.3</v>
-      </c>
-      <c r="I6" s="9">
-        <v>388.3</v>
-      </c>
-      <c r="J6" s="9">
-        <v>388.3</v>
-      </c>
-      <c r="K6" s="9">
-        <v>388.3</v>
-      </c>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="11" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+    </row>
+    <row r="10" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A9:S9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/regionseng/7/transport and communication/the length of the roads.xlsx
+++ b/regionseng/7/transport and communication/the length of the roads.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A683B42B-02DE-4A8A-9BAB-B54427F32BC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="1830" windowWidth="13200" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2355" yWindow="1830" windowWidth="13200" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -257,11 +256,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 2" xfId="5"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal_Sheet1 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 6" xfId="2"/>
+    <cellStyle name="Normal_Sheet1 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -352,23 +351,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -404,23 +386,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -596,11 +561,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -625,6 +590,7 @@
       <c r="K1" s="23"/>
       <c r="L1" s="23"/>
       <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -664,6 +630,9 @@
       <c r="M2" s="3">
         <v>2022</v>
       </c>
+      <c r="N2" s="3">
+        <v>2023</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -704,6 +673,9 @@
       </c>
       <c r="M3" s="14">
         <v>2119.9</v>
+      </c>
+      <c r="N3" s="14">
+        <v>2140.2000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.25">
@@ -721,6 +693,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="10"/>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -762,6 +735,9 @@
       <c r="M5" s="16">
         <v>0</v>
       </c>
+      <c r="N5" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -803,6 +779,9 @@
       <c r="M6" s="18">
         <v>401.8</v>
       </c>
+      <c r="N6" s="18">
+        <v>401.8</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
@@ -843,6 +822,9 @@
       </c>
       <c r="M7" s="21">
         <v>1718.1</v>
+      </c>
+      <c r="N7" s="21">
+        <v>1738.4</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -898,7 +880,7 @@
   <mergeCells count="3">
     <mergeCell ref="A9:S9"/>
     <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
